--- a/Project_Aeracana_Credits.xlsx
+++ b/Project_Aeracana_Credits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Dokumente\GameMakerStudio2\Project_Aeracana_Credits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Dokumente\GameMakerStudio2\Aeracana_Credits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F86CA8-6E2F-4E6A-9DD8-253BF8006725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D03847-9466-4AD3-B373-85BFD7EDF336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
